--- a/BvIDexport2.xlsx
+++ b/BvIDexport2.xlsx
@@ -12,20 +12,836 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="298">
   <si>
     <t xml:space="preserve">NewBvDIDs</t>
   </si>
   <si>
+    <t xml:space="preserve">DE7330530056</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">GB00102498</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR542051180</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEFEI1007380</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR*J00S1080</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR552081317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT00811720580</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RU00040778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE5050056484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEFEI1007130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE5330000056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB01833679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US363145972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR180020026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE5110426441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE5110216866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE7110175411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE8170000724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE2021003831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE5560362138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE5110206610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE2011425555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE5110295943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE5110066894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US*955013197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US133413761L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HU10625790</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US341843785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US541163725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US411724239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESA08001851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR395030844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE6070002888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELEI332347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE2190015873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE2190001854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE7150000030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE7150057815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE6150007515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO*J00S1220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO962986277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO987059699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE8330415355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE7170000175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE2190331916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IE433527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IE380620</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IE380541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IE358039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IE008610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CA90013NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM45532R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NL33292246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN*918548380</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VG0028318077-FHQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KY31377PC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE*821911281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE8170569367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEFEB13109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESA28157360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE8170725443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NL34108286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI01163004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI06353667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEFEB59028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEFEB13306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JP1150001006212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE7331098251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE4010000539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR380414482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR480645084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR379677636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE6070009834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE*I0005081066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEFEB13584</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE*110009094088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE3170295464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE*J00S1100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE2010198197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE7330029432</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEFEB15469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESA08252355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESA08168064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESA28119220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR542107651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE2010378297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR542048574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE5050481352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE5050471540</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE*110004879252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE5070255751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE5030319504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB06209386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZA196701303806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE2150965540</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELEI353609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE5030088293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RU17230282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHCHE112112310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB01142830</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US126169806L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US870698303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE5110304100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELEI547293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEFEB48901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBOC303117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT10236451000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE5110001494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB02989338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE2050372206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE5190434206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE2150000234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE6150261280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE5564620887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR443837331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE2290291348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE2350060811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE*110154391700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE7170006728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE7170013574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE7170310047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE6270139382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELEI548172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEFEB23470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE*110236451262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE2230131707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE2230133950</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LULB236327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE8171206423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE8171203320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE3070407436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE*110191261738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE2030006515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE*110230314208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE3070183858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PL634563560</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PL811655650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE8190010796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE2151253621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE8170504074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CZ00260428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE7010228841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE2012363754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE4170123108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BE0403170701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB02366963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NL34355195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NL53748662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESB97875660</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESB98338411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE7170311222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE8070234353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NL24311905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB06176482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB06179060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB03039100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT04732570967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL30427GE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NL27273650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBGG44692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBGG44708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LULB237527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LULB115922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE2011827492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE2150918982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE5030724096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE5030456699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO910261525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO924332166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO863769132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESB82056748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR813058856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR531330389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN0008687067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US150238465L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR380415125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT06312510966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NL53486773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NL08186639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB07181714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB04043908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE8170600335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE8310297852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE6290207493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE5567818314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB03586615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO988470937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CZ*Q000-8370875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LULB184488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CZ08649197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CZ28356250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CZ05711452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CZ02413507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CZ29259428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO958935420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO920596509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO912230252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR542008677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MC*110191967113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LULB200751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NL33241061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LULB194538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LULB201907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR*110232121181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LULB195709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CZ41692918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE*820975510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE*929123061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB*908439227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KY*110014084853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KY*110179911376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PL012149187</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US149189679L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US208764829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US149098813L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US149185809L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US140689340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US474573139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US275627513L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US142546192L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CZ*110178160852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CYC307511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US362723087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB00955951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE2011364466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE2050483671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE2050488817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE2210163123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE*110191357899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE2250063387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE*110143628629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE2250192021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE*110230310285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE2350113248</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE*110193310289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE5170178473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE*110191784698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE7230282328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DK*J00S1050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DK10103940</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE75019980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB04366849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB03690065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US541708481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US*Z00034198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US*B000078634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB12133117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBP038958644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBGG46130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBGG50009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBLP011863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI09866740</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI02459755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEFEB13116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE*110295039669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE2151872163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE2151203127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE2151527463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE2151574829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE2370010538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE2370237724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE2370042401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE2370010537</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEFEB41239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEP001630896</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE6070491599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE2010000581</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE8170035060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE8190350014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE*110188069922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE8290178515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NL01178978</t>
+  </si>
+  <si>
     <t xml:space="preserve">AT9090003478</t>
   </si>
   <si>
     <t xml:space="preserve">AT9110778886</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
     <t xml:space="preserve">AT*110008744730</t>
   </si>
   <si>
@@ -35,835 +851,61 @@
     <t xml:space="preserve">AT9150100345</t>
   </si>
   <si>
-    <t xml:space="preserve">BM45532R</t>
+    <t xml:space="preserve">CH*Q000690849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHCHE109101085</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHCHE114669799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LULB104637</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESG08171118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE*110004213893</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE2250132994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE4070408675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE5110426307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE6070524807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE7370113108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBIM003891V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB02020410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IS6306051210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEFEB13172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE5050567293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE*110187358295</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE7330620677</t>
   </si>
   <si>
     <t xml:space="preserve">CH0000049173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CH*Q000690849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHCHE109101085</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHCHE112112310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHCHE114669799</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CZ*110178160852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CYC307511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CZ00260428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CZ*Q000-8370875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LULB184488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CZ08649197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CZ28356250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CZ05711452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CZ02413507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CZ29259428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CZ41692918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE*820975510</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE*929123061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE*J00S1100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2010198197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FR542107651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2010378297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US362723087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB00955951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2011364466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2011425555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE*110191261738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2030006515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2050372206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2050483671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2050488817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL30427GE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NL27273650</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GBGG44692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GBGG44708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LULB237527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LULB115922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2011827492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2150918982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2150965540</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2151253621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE*110295039669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2151872163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2151203127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2151527463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2151574829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DELEI332347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2190015873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2190001854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2190331916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2210163123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE*110236451262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2230131707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2230133950</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE*110191357899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2250063387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2250132994</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2290291348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE*110230310285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2350113248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2370010538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2370237724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2370042401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2370010537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE*110230314208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE3070183858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LULB236327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE8171206423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE8171203320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE3070407436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE*110009094088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE3170295464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JP1150001006212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE7331098251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE4010000539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE4070408675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2012363754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE4170123108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DELEI353609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE5030088293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE5030319504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE5030724096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE5030456699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE5050056484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FR542048574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE5050481352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE5050471540</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE5050567293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE5110001494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE5110295943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE5110066894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE5110206610</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE5110216866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE5110304100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE5110426307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE5110426441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE*110193310289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE5170178473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE5190434206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE5330000056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FR395030844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE6070002888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE6070009834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEP001630896</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE6070491599</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE6070524807</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE7150000030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE7150057815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE6150007515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2150000234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE6150261280</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE*110154391700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE7170006728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE7170013574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE7170310047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE6270139382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE6290207493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE7010228841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE7110175411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE7170000175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE7170311222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE*110191784698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE7230282328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE7330029432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE7330530056</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE7330620677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE7370113108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE8070234353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE8170504074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE8170600335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE8170000724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE8170725443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE8190010796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2010000581</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE8170035060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE8190350014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE*110188069922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE8290178515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE8310297852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE8330415355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE*821911281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE8170569367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEFEB13109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEFEB13116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEFEB13172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEFEB59028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEFEB13306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE*I0005081066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEFEB13584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEFEB15469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DELEI548172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEFEB23470</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEFEB41239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DELEI547293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEFEB48901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEFEI1007130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEFEI1007380</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DK*J00S1050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DK10103940</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EE75019980</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESA08001851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESA08252355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESA08168064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESA28119220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESA28157360</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESB82056748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESB98338411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESG08171118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FI09866740</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FI02459755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FI01163004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FI06353667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FR*J00S1080</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FR180020026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FR552081317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FR380414482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FR480645084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FR379677636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FR380415125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FR443837331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FR813058856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FR531330389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FR542008677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FR542051180</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB*908439227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB00102498</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB01142830</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GBIM003891V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB02020410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BE0403170701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB02366963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB02989338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NL24311905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB06176482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB06179060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB03039100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB03586615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB04366849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB03690065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NL53486773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NL08186639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB07181714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB04043908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US541708481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US*Z00034198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US*B000078634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB12133117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GBP038958644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GBGG46130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GBGG50009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GBLP011863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GBOC303117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HU10625790</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IE433527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IE380620</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IE380541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IE358039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IE008610</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IN0008687067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IS6306051210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IT00811720580</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IT04732570967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IT06312510966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IT10236451000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KY*110014084853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KY*110179911376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN*918548380</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VG0028318077-FHQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KY31377PC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LULB104637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FR*110232121181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LULB195709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MC*110191967113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LULB200751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NL33241061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LULB194538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LULB201907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NL01178978</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SE2021003831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SE5560362138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NL33292246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NL34108286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NL34355195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NL53748662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO910261525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO924332166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO863769132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO912230252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO987059699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO988470937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PL012149187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PL634563560</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PL811655650</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RU00040778</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RU17230282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SE5564620887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SE5567818314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US*955013197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US133413761L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US140689340</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US474573139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US275627513L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US142546192L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US363145972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US149189679L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US208764829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US149098813L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US149185809L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US150238465L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US341843785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US411724239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US541163725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US126169806L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US870698303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB06209386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZA196701303806</t>
   </si>
 </sst>
 </file>
@@ -2615,6 +2657,76 @@
         <v>283</v>
       </c>
     </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>297</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/BvIDexport2.xlsx
+++ b/BvIDexport2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="283">
   <si>
     <t xml:space="preserve">NewBvDIDs</t>
   </si>
@@ -35,6 +35,9 @@
     <t xml:space="preserve">FR*J00S1080</t>
   </si>
   <si>
+    <t xml:space="preserve">FR130004989</t>
+  </si>
+  <si>
     <t xml:space="preserve">FR552081317</t>
   </si>
   <si>
@@ -53,771 +56,747 @@
     <t xml:space="preserve">DE5330000056</t>
   </si>
   <si>
+    <t xml:space="preserve">DE*J00S1100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE*110001142375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE2010198197</t>
+  </si>
+  <si>
     <t xml:space="preserve">GB01833679</t>
   </si>
   <si>
+    <t xml:space="preserve">DE5110426441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE5110216866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE5110013057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE7110175411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE8170000724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE2021003831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE5560362138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE2011425555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE5110295943</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE5110066894</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US*955013197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US133413761L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR542107651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BE0435084986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BE0403170701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HU10625790</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US341843785</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US541163725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US411724239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESA08001851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE2150055529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR395030844</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NL33302572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE6070002888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELEI332347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE2190015873</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE2190001854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE7150000030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE7150057815</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE6150007515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO*J00S1220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO962986277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO987059699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE8330415355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBJE93296</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE7170000175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE2190331916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IE433527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IE380620</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IE380541</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IE358039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IE008610</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CA90013NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BM45532R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NL33292246</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN*918548380</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VG0028318077-FHQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KY31377PC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE*821911281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE8170569367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEFEB13109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESA28157360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB01142830</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE8170725443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NL34108286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI01163004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI06353667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEFEB59028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEFEB13306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JP1150001006212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE7331098251</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE4010000539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR380414482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR480645084</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR379677636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE6070009834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE*110009094088</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE3170295464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESA08252355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESA28082626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESA08168064</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESA28119220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI16700343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEFEB15469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR622048965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE2010378297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR542048574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR954503439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE5050481352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE5050471540</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE*110171185618</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE5070255751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE5030319504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB06209386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZA196701303806</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE2150965540</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELEI353609</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE5030088293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RU17230282</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHCHE112112310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT10236451000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US126169806L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US870698303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE5110304100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELEI547293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEFEB48901</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBOC303117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE5110001494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB02989338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE2050372206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE2150000234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE6150261280</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR443837331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE2290291348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE2350060811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELEI681721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE7170006728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE7170013574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE6270139382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELEI548172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEFEB23470</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE*110236451262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE2230131707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE2230133950</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LULB236327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE8171206423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE8171203320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE3070407436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE*110191261738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE2030006515</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE*110230314208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE3070183858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE5050288292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE3250127812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PL634563560</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PL811655650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE8190010796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE2151253621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE8170504074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CZ00260428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE2012363754</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE4170123108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE7010228841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CN40115PC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NL34355195</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NL53748662</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESB97875660</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESB98338411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE7170310047</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE7170311222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE8070234353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NL24311905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB06176482</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB06179060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB03039100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IL30427GE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NL27273650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBGG44692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBGG44708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LULB237527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LULB115922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE2011827492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE2150918982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO863769132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESB82056748</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBOC333488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR813058856</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR531330389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US150238465L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN0008687067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR380415125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT06312510966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NL53486773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NL08186639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB07181714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB04043908</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE8170600335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE8310297852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE6290207493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB03586615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO988470937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CZ*Q000-8370875</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LULB184488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CZ08649197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CZ28356250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CZ05711452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CZ02413507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CZ29259428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO958935420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO920596509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO912230252</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR542008677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MC*110191967113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LULB200751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NL33241061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LULB194538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LULB201907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR*110232121181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LULB195709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CZ41692918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE*820975510</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE*929123061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB*908439227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KY*110014084853</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PL012149187</t>
+  </si>
+  <si>
     <t xml:space="preserve">US363145972</t>
   </si>
   <si>
-    <t xml:space="preserve">FR180020026</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE5110426441</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE5110216866</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE7110175411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE8170000724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SE2021003831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SE5560362138</t>
+    <t xml:space="preserve">US149189679L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US208764829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US149098813L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US149185809L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CZ*110178160852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CYC307511</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US362723087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US361561860</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB00955951</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE2011364466</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE2210163123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE*110143628629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE2250192021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE*110193310289</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE5170178473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE*110191784698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE7230282328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DECP3294626</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE7050347454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE7050347452</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE7290514922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DK*J00S1050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DK10103940</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EE75019980</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB04366849</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NL27002687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB03690065</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US541708481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US*Z00034198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US*B000078634</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB12133117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBP038958644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBGG46130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBGG50009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GBLP011863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI09866740</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI02459755</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE*110295039669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE2151872163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE2151203127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE2151527463</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE2151574829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEFEB41239</t>
   </si>
   <si>
     <t xml:space="preserve">DE5110206610</t>
   </si>
   <si>
-    <t xml:space="preserve">DE2011425555</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE5110295943</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE5110066894</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US*955013197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US133413761L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HU10625790</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US341843785</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US541163725</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US411724239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESA08001851</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FR395030844</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE6070002888</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DELEI332347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2190015873</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2190001854</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE7150000030</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE7150057815</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE6150007515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO*J00S1220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO962986277</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO987059699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE8330415355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE7170000175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2190331916</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IE433527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IE380620</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IE380541</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IE358039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IE008610</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CA90013NC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BM45532R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NL33292246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CN*918548380</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VG0028318077-FHQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KY31377PC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE*821911281</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE8170569367</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEFEB13109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESA28157360</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE8170725443</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NL34108286</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FI01163004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FI06353667</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEFEB59028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEFEB13306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JP1150001006212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE7331098251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE4010000539</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FR380414482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FR480645084</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FR379677636</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE6070009834</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE*I0005081066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEFEB13584</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE*110009094088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE3170295464</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE*J00S1100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2010198197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE7330029432</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEFEB15469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESA08252355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESA08168064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESA28119220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FR542107651</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2010378297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FR542048574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE5050481352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE5050471540</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE*110004879252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE5070255751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE5030319504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB06209386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ZA196701303806</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2150965540</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DELEI353609</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE5030088293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RU17230282</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHCHE112112310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB01142830</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US126169806L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US870698303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE5110304100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DELEI547293</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEFEB48901</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GBOC303117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IT10236451000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE5110001494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB02989338</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2050372206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE5190434206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2150000234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE6150261280</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SE5564620887</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FR443837331</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2290291348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2350060811</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE*110154391700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE7170006728</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE7170013574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE7170310047</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE6270139382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DELEI548172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEFEB23470</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE*110236451262</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2230131707</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2230133950</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LULB236327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE8171206423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE8171203320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE3070407436</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE*110191261738</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2030006515</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE*110230314208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE3070183858</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PL634563560</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PL811655650</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE8190010796</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2151253621</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE8170504074</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CZ00260428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE7010228841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2012363754</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE4170123108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BE0403170701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB02366963</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NL34355195</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NL53748662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESB97875660</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESB98338411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE7170311222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE8070234353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NL24311905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB06176482</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB06179060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB03039100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IT04732570967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IL30427GE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NL27273650</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GBGG44692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GBGG44708</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LULB237527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LULB115922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2011827492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2150918982</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE5030724096</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE5030456699</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO910261525</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO924332166</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO863769132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESB82056748</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FR813058856</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FR531330389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IN0008687067</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US150238465L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FR380415125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IT06312510966</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NL53486773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NL08186639</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB07181714</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB04043908</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE8170600335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE8310297852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE6290207493</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SE5567818314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB03586615</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO988470937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CZ*Q000-8370875</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LULB184488</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CZ08649197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CZ28356250</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CZ05711452</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CZ02413507</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CZ29259428</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO958935420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO920596509</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO912230252</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FR542008677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MC*110191967113</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LULB200751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NL33241061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LULB194538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LULB201907</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FR*110232121181</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LULB195709</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CZ41692918</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE*820975510</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE*929123061</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB*908439227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KY*110014084853</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KY*110179911376</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PL012149187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US149189679L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US208764829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US149098813L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US149185809L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US140689340</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US474573139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US275627513L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US142546192L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CZ*110178160852</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CYC307511</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US362723087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB00955951</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2011364466</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2050483671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2050488817</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2210163123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE*110191357899</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2250063387</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE*110143628629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2250192021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE*110230310285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2350113248</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE*110193310289</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE5170178473</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE*110191784698</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE7230282328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DK*J00S1050</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DK10103940</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EE75019980</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB04366849</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB03690065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US541708481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US*Z00034198</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US*B000078634</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GB12133117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GBP038958644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GBGG46130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GBGG50009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GBLP011863</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FI09866740</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FI02459755</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEFEB13116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE*110295039669</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2151872163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2151203127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2151527463</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2151574829</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2370010538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2370237724</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2370042401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2370010537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEFEB41239</t>
-  </si>
-  <si>
     <t xml:space="preserve">DEP001630896</t>
   </si>
   <si>
     <t xml:space="preserve">DE6070491599</t>
   </si>
   <si>
+    <t xml:space="preserve">DE7110345674</t>
+  </si>
+  <si>
     <t xml:space="preserve">DE2010000581</t>
   </si>
   <si>
@@ -833,24 +812,12 @@
     <t xml:space="preserve">DE8290178515</t>
   </si>
   <si>
-    <t xml:space="preserve">NL01178978</t>
-  </si>
-  <si>
     <t xml:space="preserve">AT9090003478</t>
   </si>
   <si>
     <t xml:space="preserve">AT9110778886</t>
   </si>
   <si>
-    <t xml:space="preserve">AT*110008744730</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT9150010705</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT9150100345</t>
-  </si>
-  <si>
     <t xml:space="preserve">CH*Q000690849</t>
   </si>
   <si>
@@ -863,15 +830,6 @@
     <t xml:space="preserve">LULB104637</t>
   </si>
   <si>
-    <t xml:space="preserve">ESG08171118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE*110004213893</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE2250132994</t>
-  </si>
-  <si>
     <t xml:space="preserve">DE4070408675</t>
   </si>
   <si>
@@ -903,9 +861,6 @@
   </si>
   <si>
     <t xml:space="preserve">DE7330620677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CH0000049173</t>
   </si>
 </sst>
 </file>
@@ -2652,81 +2607,6 @@
         <v>282</v>
       </c>
     </row>
-    <row r="284">
-      <c r="A284" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="s">
-        <v>297</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
